--- a/report.xlsx
+++ b/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="8">
   <si>
     <t>[</t>
   </si>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,84 @@
   <sheets>
     <sheet name="ЗВІТ 14ф" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+  <si>
+    <t>ЗВІТ ПО НОЗОЛОГІЯХ В РОЗРІЗІ РАЙОНІВ</t>
+  </si>
+  <si>
+    <t>МСЕК</t>
+  </si>
+  <si>
+    <t>Обласна</t>
+  </si>
+  <si>
+    <t>ПЕРІОД</t>
+  </si>
+  <si>
+    <t>2018-01-01 - 2018-12-31</t>
+  </si>
+  <si>
+    <t>ШИФР</t>
+  </si>
+  <si>
+    <t>A00.0 - S00.0</t>
+  </si>
+  <si>
+    <t>ТЕРИТОРІЯ</t>
+  </si>
+  <si>
+    <t>ВСЬОГО</t>
+  </si>
+  <si>
+    <t>ГРУПА</t>
+  </si>
+  <si>
+    <t>Iгр.</t>
+  </si>
+  <si>
+    <t>всього</t>
+  </si>
+  <si>
+    <t>Іa</t>
+  </si>
+  <si>
+    <t>Iб</t>
+  </si>
+  <si>
+    <t>ІІгр.</t>
+  </si>
+  <si>
+    <t>ІІІгр.</t>
+  </si>
+  <si>
+    <t>До 39р.</t>
+  </si>
+  <si>
+    <t>Від 40</t>
+  </si>
+  <si>
+    <t>до 55/60</t>
+  </si>
+  <si>
+    <t>Працюючі</t>
+  </si>
+  <si>
+    <t>всьго</t>
+  </si>
+  <si>
+    <t>гр.6+</t>
+  </si>
+  <si>
+    <t>гр.7</t>
+  </si>
+  <si>
+    <t>Працездатний вік</t>
+  </si>
   <si>
     <t>Богородчанський</t>
   </si>
@@ -59,9 +131,6 @@
   </si>
   <si>
     <t>Івано-Франківськ</t>
-  </si>
-  <si>
-    <t>ВСЬОГО</t>
   </si>
   <si>
     <t>Болехів</t>
@@ -110,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,500 +471,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>12</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>11</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>11</v>
-      </c>
-      <c r="J1">
-        <v>3</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>1</v>
-      </c>
-      <c r="O1">
-        <v>2</v>
-      </c>
-      <c r="P1">
-        <v>12</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
-        <v>0</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>1</v>
-      </c>
-      <c r="U1">
-        <v>11</v>
+      <c r="J1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>6</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>12</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>11</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>9</v>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>16</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>6</v>
-      </c>
-      <c r="P6">
-        <v>18</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-      <c r="U6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>30</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>23</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>7</v>
-      </c>
-      <c r="P7">
-        <v>30</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>28</v>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -910,11 +646,11 @@
         <v>1</v>
       </c>
       <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>6</v>
       </c>
-      <c r="P8">
-        <v>16</v>
-      </c>
       <c r="Q8">
         <v>0</v>
       </c>
@@ -925,18 +661,18 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -948,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -972,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -990,15 +726,15 @@
         <v>0</v>
       </c>
       <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>4</v>
-      </c>
-      <c r="U9">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1013,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1037,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -1055,18 +791,18 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1078,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1102,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1120,18 +856,18 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1143,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>5</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1167,13 +903,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1185,15 +921,15 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -1214,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
         <v>6</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
       </c>
       <c r="P13">
         <v>13</v>
@@ -1250,149 +986,149 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="J14">
         <v>10</v>
       </c>
-      <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>8</v>
-      </c>
-      <c r="J14">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>3</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P14">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="P15">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
       <c r="C16">
         <v>0</v>
       </c>
@@ -1403,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
       <c r="I16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1427,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1445,18 +1181,18 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1468,16 +1204,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1492,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1510,18 +1246,18 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1536,16 +1272,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1560,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1578,96 +1314,550 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19:U19" si="0">SUM(B1:B18)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>71</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>56</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <v>49</v>
+      </c>
+      <c r="J22">
+        <v>31</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <v>19</v>
+      </c>
+      <c r="P22">
+        <v>63</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>9</v>
+      </c>
+      <c r="U22">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <f>SUM(B1:B25)</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C1:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D1:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>SUM(E1:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>SUM(F1:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>SUM(G1:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>SUM(H1:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>SUM(I1:I25)</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>SUM(J1:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>SUM(K1:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>SUM(L1:L25)</f>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f>SUM(M1:M25)</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>SUM(N1:N25)</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>SUM(O1:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>SUM(P1:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(Q1:Q25)</f>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f>SUM(R1:R25)</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f>SUM(S1:S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f>SUM(T1:T25)</f>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f>SUM(U1:U25)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -22,7 +22,7 @@
     <t>МСЕК</t>
   </si>
   <si>
-    <t>Обласна</t>
+    <t>ВСІ МСЕК</t>
   </si>
   <si>
     <t>ПЕРІОД</t>
@@ -34,7 +34,7 @@
     <t>ШИФР</t>
   </si>
   <si>
-    <t>A00.0 - S00.0</t>
+    <t>A00 - Z99</t>
   </si>
   <si>
     <t>ТЕРИТОРІЯ</t>
@@ -136,10 +136,10 @@
     <t>Болехів</t>
   </si>
   <si>
+    <t>Яремче</t>
+  </si>
+  <si>
     <t>Бурштин</t>
-  </si>
-  <si>
-    <t>Яремче</t>
   </si>
 </sst>
 </file>
@@ -510,9 +510,6 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
@@ -542,6 +539,9 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
@@ -607,64 +607,64 @@
         <v>24</v>
       </c>
       <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>17</v>
+      </c>
+      <c r="Q8">
+        <v>24</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>17</v>
+      </c>
+      <c r="T8">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>6</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
       <c r="U8">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -672,7 +672,7 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -681,55 +681,55 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -737,64 +737,64 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -802,64 +802,64 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -867,64 +867,64 @@
         <v>28</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>23</v>
+      </c>
+      <c r="J12">
         <v>8</v>
       </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
+      <c r="K12">
         <v>5</v>
       </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P12">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U12">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -932,64 +932,64 @@
         <v>29</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I13">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="K13">
         <v>9</v>
       </c>
-      <c r="J13">
-        <v>8</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P13">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="U13">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -997,64 +997,64 @@
         <v>30</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I14">
+        <v>63</v>
+      </c>
+      <c r="J14">
         <v>17</v>
       </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="O14">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="P14">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="U14">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1062,64 +1062,64 @@
         <v>31</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P15">
+        <v>26</v>
+      </c>
+      <c r="Q15">
+        <v>34</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>26</v>
+      </c>
+      <c r="T15">
         <v>12</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
       <c r="U15">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1127,64 +1127,64 @@
         <v>32</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G16">
+        <v>32</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>34</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
         <v>12</v>
       </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16">
-        <v>9</v>
-      </c>
-      <c r="J16">
+      <c r="L16">
+        <v>38</v>
+      </c>
+      <c r="M16">
         <v>6</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P16">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="U16">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1192,7 +1192,7 @@
         <v>33</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1204,16 +1204,16 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1222,34 +1222,34 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1257,64 +1257,64 @@
         <v>34</v>
       </c>
       <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
         <v>7</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>21</v>
+      </c>
+      <c r="J18">
         <v>7</v>
       </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P18">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+      <c r="R18">
         <v>7</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U18">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1322,64 +1322,64 @@
         <v>35</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
         <v>5</v>
       </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <v>14</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
         <v>5</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>7</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
       <c r="U19">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1387,64 +1387,64 @@
         <v>36</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P20">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="U20">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1452,64 +1452,64 @@
         <v>37</v>
       </c>
       <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>22</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>23</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
         <v>7</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
+      <c r="P21">
+        <v>16</v>
+      </c>
+      <c r="Q21">
+        <v>25</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <v>17</v>
+      </c>
+      <c r="T21">
         <v>5</v>
       </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>7</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
       <c r="U21">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1517,64 +1517,64 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G22">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I22">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="J22">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N22">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="O22">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="P22">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="T22">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="U22">
-        <v>53</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1582,64 +1582,64 @@
         <v>39</v>
       </c>
       <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
         <v>5</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P23">
+        <v>10</v>
+      </c>
+      <c r="Q23">
+        <v>10</v>
+      </c>
+      <c r="R23">
         <v>5</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U23">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1647,7 +1647,7 @@
         <v>40</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1718,58 +1718,58 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:21">
